--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -1084,7 +1084,7 @@
         <v>50330000</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>4811000</v>
@@ -1615,7 +1615,7 @@
         <v>21400000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>158000</v>
@@ -1897,7 +1897,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>200000</v>
@@ -1932,7 +1932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1967,43 +1967,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4017857.142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4691000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2013,7 +2013,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2023,7 +2023,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2033,7 +2033,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2043,47 +2043,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3857142.857142857</v>
+        <v>-350000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4691000</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2093,7 +2093,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2103,7 +2103,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2113,7 +2113,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2123,7 +2123,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2133,47 +2133,47 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2183,7 +2183,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2193,7 +2193,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2203,7 +2203,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2213,7 +2213,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2223,37 +2223,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120000</v>
+        <v>9391857.142857142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2263,111 +2263,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9196142.857142858</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>9516142.857142858</v>
+        <v>9711857.142857142</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,35 +1059,91 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>591</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-26-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Huỳnh Huyền Trân</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>50330000</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>50330000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>50330000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4811000</v>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>56330000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56330000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>56330000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5591000</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,21 +2009,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="4">
@@ -1977,7 +2033,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4017857.142857143</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="5">
@@ -1987,7 +2043,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4691000</v>
+        <v>5471000</v>
       </c>
     </row>
     <row r="6">
@@ -2063,17 +2119,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2083,7 +2139,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2093,17 +2149,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2113,7 +2169,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2123,7 +2179,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2133,7 +2189,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2143,47 +2199,47 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2193,7 +2249,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2203,7 +2259,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2213,47 +2269,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9391857.142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2263,21 +2319,81 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>320000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10759000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>9711857.142857142</v>
+      <c r="B40" t="n">
+        <v>11079000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -1988,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,7 +2129,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2139,27 +2139,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2169,7 +2169,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2179,7 +2179,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2189,7 +2189,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2199,7 +2199,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2209,7 +2209,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2219,27 +2219,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2249,47 +2249,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2299,7 +2299,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2309,7 +2309,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2319,80 +2319,60 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200000</v>
+        <v>10759000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10759000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>11079000</v>
       </c>
     </row>
